--- a/html/Privathospitalssystemer - sende_excel.XLSX
+++ b/html/Privathospitalssystemer - sende_excel.XLSX
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0822A407-17D8-4E32-82E0-CD1E0110F8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF95FDE9-03DC-49A7-ACDF-E286B397DE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 12-05-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 16-05-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Privathospitalssystemer___sende">'Opdateret d. 12-05-2025'!$A$1:$K$25</definedName>
+    <definedName name="Privathospitalssystemer___sende">'Opdateret d. 16-05-2025'!$A$1:$K$25</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>

--- a/html/Privathospitalssystemer - sende_excel.XLSX
+++ b/html/Privathospitalssystemer - sende_excel.XLSX
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF95FDE9-03DC-49A7-ACDF-E286B397DE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A29F4AF-2589-4541-820C-566F03BC6934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 16-05-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 02-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Privathospitalssystemer___sende">'Opdateret d. 16-05-2025'!$A$1:$K$25</definedName>
+    <definedName name="Privathospitalssystemer___sende">'Opdateret d. 02-12-2025'!$A$1:$K$25</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="61">
   <si>
     <t>Standard</t>
   </si>
@@ -1071,6 +1071,9 @@
       <c r="C17" t="s">
         <v>13</v>
       </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
       <c r="H17" t="s">
         <v>14</v>
       </c>

--- a/html/Privathospitalssystemer - sende_excel.XLSX
+++ b/html/Privathospitalssystemer - sende_excel.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A29F4AF-2589-4541-820C-566F03BC6934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76D7209-AB3D-4F40-AFB3-6B09337BF1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/html/Privathospitalssystemer - sende_excel.XLSX
+++ b/html/Privathospitalssystemer - sende_excel.XLSX
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Godkendelsesdatabase\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76D7209-AB3D-4F40-AFB3-6B09337BF1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21FC321-8F74-4981-8214-DBB5D4B6115F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 02-12-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 05-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Privathospitalssystemer___sende">'Opdateret d. 02-12-2025'!$A$1:$K$25</definedName>
+    <definedName name="Privathospitalssystemer___sende">'Opdateret d. 05-12-2025'!$A$1:$K$25</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -553,9 +553,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -590,7 +590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -625,7 +625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -660,7 +660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -695,7 +695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -730,7 +730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -759,7 +759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -773,7 +773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -808,7 +808,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -843,7 +843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -878,7 +878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -913,7 +913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -948,7 +948,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -983,7 +983,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>59</v>
       </c>

--- a/html/Privathospitalssystemer - sende_excel.XLSX
+++ b/html/Privathospitalssystemer - sende_excel.XLSX
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Godkendelsesdatabase\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21FC321-8F74-4981-8214-DBB5D4B6115F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59890300-3DD2-42E1-B2CB-C16691465032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30855" yWindow="1950" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 05-12-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 19-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Privathospitalssystemer___sende">'Opdateret d. 05-12-2025'!$A$1:$K$25</definedName>
+    <definedName name="Privathospitalssystemer___sende">'Opdateret d. 19-12-2025'!$A$1:$K$25</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -553,9 +553,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -590,7 +590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -625,7 +625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -660,7 +660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -695,7 +695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -730,7 +730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -759,7 +759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -773,7 +773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -808,7 +808,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -843,7 +843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -878,7 +878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -913,7 +913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -948,7 +948,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -983,7 +983,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>59</v>
       </c>
